--- a/backend/output_timetables/sem5_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -573,22 +573,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>CS309</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -600,27 +600,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -669,17 +669,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -843,12 +843,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -875,22 +875,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -902,22 +902,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS303</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -504,17 +504,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -568,22 +568,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>CS303</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -664,14 +664,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
@@ -684,7 +684,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -742,12 +742,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -774,27 +774,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>CS303</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -870,27 +870,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -907,17 +907,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS303</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -949,12 +949,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,6 +1023,11 @@
           <t>Instructor</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1042,7 +1047,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1064,6 +1069,11 @@
           <t>Sunil C K, Pavan</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1083,7 +1093,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1105,6 +1115,11 @@
           <t>Animesh Roy, Dibyajyothi</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1124,7 +1139,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1146,6 +1161,11 @@
           <t>Krishendu, Girish</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1165,7 +1185,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Department: CSE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1187,6 +1207,11 @@
           <t>TBD</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1228,6 +1253,11 @@
           <t>Pramod</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1269,6 +1299,11 @@
           <t>Pavan Kumar</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1310,6 +1345,11 @@
           <t>Utkarsh K</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1351,6 +1391,11 @@
           <t>Suvadip</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1392,6 +1437,11 @@
           <t>Manjunath K V</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1433,6 +1483,11 @@
           <t>Prakash Pawar</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1474,6 +1529,11 @@
           <t>Pankaj Kumar</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1515,6 +1575,11 @@
           <t>Rajendra Hegadi</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1556,6 +1621,11 @@
           <t>Sandesh P</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1597,31 +1667,36 @@
           <t>Sibasankar Padhy</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1631,33 +1706,38 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1676,60 +1756,70 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Graphs and Social Networks</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Advanced Algorithms</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1758,19 +1848,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pramod</t>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1799,19 +1894,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Pavan Kumar</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Graphs and Social Networks</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1840,19 +1940,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Utkarsh K</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Advanced Algorithms</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1881,19 +1986,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Suvadip</t>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Cryptography &amp; Security</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1922,19 +2032,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1963,19 +2078,24 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>AI in Biomedical Engineering</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2004,19 +2124,24 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cryptography &amp; Security</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2031,33 +2156,38 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rajendra Hegadi</t>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2072,33 +2202,38 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AI in Biomedical Engineering</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2113,33 +2248,38 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2154,175 +2294,195 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-2-4-2</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>User Interaction (Minor)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Analog Electronics</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2332,335 +2492,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Machine Learning</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Deepak K T</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Electronics Systems</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Pankaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Introduction of Communication</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Introduction to AI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2-0-2-4-2</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Sibasankar Padhy</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Electronic Systems</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Data Science with Python</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Abdul Wahid</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>User Interaction (Minor)</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2D Computer Graphics</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
           <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable.xlsx
@@ -472,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -504,17 +504,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CS309</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS309</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -605,17 +605,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS309</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,12 +679,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -747,22 +747,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -870,27 +870,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -907,22 +907,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Branch_Info" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +472,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CS309</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>CS303</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -521,7 +524,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -565,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -612,12 +615,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -634,17 +637,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -661,14 +664,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
@@ -676,12 +679,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -739,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS309</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -776,22 +779,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CS309</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -840,17 +843,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -867,7 +870,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -877,12 +880,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -899,17 +902,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -941,17 +944,3553 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>CS309 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Krishendu, Girish</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Department: CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-2-4-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS309</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Statistics for CS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Krishendu, Girish</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Environmental Studies</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-2-4-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS309</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -511,17 +511,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS101</t>
         </is>
       </c>
     </row>
@@ -565,22 +565,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>CS309</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS303</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -671,17 +671,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>CS303 (Tutorial)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -739,17 +739,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS309</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HS101</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -840,22 +840,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS303 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>HS101</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>CS303</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS303</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>CS309</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS303</t>
         </is>
       </c>
     </row>
@@ -931,27 +931,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>CS309 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable.xlsx
@@ -62,7 +62,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill/>
     </fill>
@@ -125,14 +125,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084e0b2"/>
-        <bgColor rgb="0084e0b2"/>
+        <fgColor rgb="0096CEB4"/>
+        <bgColor rgb="0096CEB4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c5e084"/>
-        <bgColor rgb="00c5e084"/>
+        <fgColor rgb="00FECA57"/>
+        <bgColor rgb="00FECA57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084e0b2"/>
+        <bgColor rgb="0084e0b2"/>
       </patternFill>
     </fill>
     <fill>
@@ -151,6 +157,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00d8e084"/>
         <bgColor rgb="00d8e084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c5e084"/>
+        <bgColor rgb="00c5e084"/>
       </patternFill>
     </fill>
     <fill>
@@ -228,18 +240,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -318,6 +330,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1169,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,6 +1201,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1216,6 +1235,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1248,6 +1268,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1280,6 +1301,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1312,6 +1334,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1344,6 +1367,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1358,10 +1382,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -1371,10 +1392,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1382,6 +1400,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1401,20 +1420,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1422,6 +1433,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1431,12 +1443,7 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -1446,12 +1453,7 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -1464,6 +1466,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1496,6 +1499,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1528,6 +1532,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1536,6 +1541,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1544,6 +1550,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
@@ -1556,6 +1563,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -1568,6 +1576,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -1590,8 +1599,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
@@ -1614,8 +1636,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
@@ -1638,8 +1673,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
@@ -1662,8 +1710,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="inlineStr">
@@ -1686,8 +1747,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -1696,6 +1770,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
@@ -1708,6 +1783,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -1740,6 +1816,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -1752,14 +1829,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C23" s="13" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1772,6 +1849,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -1784,14 +1862,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C24" s="23" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L404], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1804,6 +1882,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1816,14 +1895,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1836,6 +1915,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1848,14 +1928,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C26" s="25" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -1868,6 +1948,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -1880,14 +1961,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C27" s="14" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -1900,6 +1981,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -1912,14 +1994,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -1932,6 +2014,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -1944,14 +2027,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C004], Wed 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -1964,6 +2047,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -1976,14 +2060,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr">
+      <c r="C30" s="30" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -1996,6 +2080,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2008,14 +2093,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="29" t="inlineStr">
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2028,6 +2113,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2040,14 +2126,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C32" s="30" t="inlineStr">
+      <c r="C32" s="32" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2060,11 +2146,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2077,7 +2164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2091,6 +2178,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2124,6 +2212,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2156,6 +2245,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2188,6 +2278,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2220,6 +2311,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2252,6 +2344,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2266,10 +2359,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -2279,10 +2369,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2290,6 +2377,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2309,20 +2397,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -2330,6 +2410,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2339,12 +2420,7 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -2354,12 +2430,7 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -2372,6 +2443,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2404,6 +2476,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2436,6 +2509,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2444,6 +2518,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2452,6 +2527,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
@@ -2464,6 +2540,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -2476,6 +2553,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -2498,8 +2576,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
@@ -2522,8 +2613,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
@@ -2546,8 +2650,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
@@ -2570,8 +2687,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="inlineStr">
@@ -2594,8 +2724,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -2604,6 +2747,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
@@ -2616,6 +2760,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -2648,6 +2793,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -2660,14 +2806,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C23" s="13" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2680,6 +2826,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -2692,14 +2839,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C24" s="23" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2712,6 +2859,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2724,14 +2872,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C004], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2744,6 +2892,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2756,14 +2905,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C26" s="25" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L402], Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2776,6 +2925,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2788,14 +2938,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C27" s="14" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2808,6 +2958,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2820,14 +2971,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2840,6 +2991,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2852,14 +3004,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2872,6 +3024,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2884,14 +3037,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr">
+      <c r="C30" s="30" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2904,6 +3057,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2916,14 +3070,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="29" t="inlineStr">
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2936,6 +3090,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -2948,14 +3103,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C32" s="30" t="inlineStr">
+      <c r="C32" s="32" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -2968,11 +3123,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2985,7 +3141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2999,6 +3155,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3032,6 +3189,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3064,6 +3222,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3096,6 +3255,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3128,6 +3288,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3160,6 +3321,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3174,10 +3336,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -3187,10 +3346,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3198,6 +3354,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3217,20 +3374,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -3238,6 +3387,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3247,12 +3397,7 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -3262,12 +3407,7 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -3280,6 +3420,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3312,6 +3453,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3344,6 +3486,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3352,6 +3495,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3360,6 +3504,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
@@ -3372,6 +3517,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -3384,6 +3530,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -3406,8 +3553,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
@@ -3430,8 +3590,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
@@ -3454,8 +3627,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
@@ -3478,8 +3664,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="inlineStr">
@@ -3502,8 +3701,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -3512,6 +3724,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
@@ -3524,6 +3737,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -3556,6 +3770,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -3568,14 +3783,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C23" s="13" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3588,6 +3803,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -3600,14 +3816,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C24" s="23" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L404], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3620,6 +3836,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -3632,14 +3849,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3652,6 +3869,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3664,14 +3882,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C26" s="25" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3684,6 +3902,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3696,14 +3915,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C27" s="14" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3716,6 +3935,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3728,14 +3948,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3748,6 +3968,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3760,14 +3981,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C004], Wed 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3780,6 +4001,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3792,14 +4014,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr">
+      <c r="C30" s="30" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3812,6 +4034,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3824,14 +4047,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="29" t="inlineStr">
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3844,6 +4067,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -3856,14 +4080,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C32" s="30" t="inlineStr">
+      <c r="C32" s="32" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -3876,11 +4100,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3893,7 +4118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3907,6 +4132,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3940,6 +4166,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -3972,6 +4199,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -4004,6 +4232,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -4036,6 +4265,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -4068,6 +4298,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -4082,10 +4313,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -4095,10 +4323,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -4106,6 +4331,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -4125,20 +4351,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -4146,6 +4364,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -4155,12 +4374,7 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -4170,12 +4384,7 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -4188,6 +4397,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -4220,6 +4430,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -4252,6 +4463,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -4260,6 +4472,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -4268,6 +4481,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
@@ -4280,6 +4494,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -4292,6 +4507,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -4314,8 +4530,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
@@ -4338,8 +4567,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
@@ -4362,8 +4604,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
@@ -4386,8 +4641,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="inlineStr">
@@ -4410,8 +4678,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -4420,6 +4701,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
@@ -4432,6 +4714,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -4464,6 +4747,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -4476,14 +4760,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C23" s="13" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -4496,6 +4780,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -4508,14 +4793,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C24" s="23" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -4528,6 +4813,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -4540,14 +4826,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C004], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -4560,6 +4846,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -4572,14 +4859,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C26" s="25" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L402], Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -4592,6 +4879,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -4604,14 +4892,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C27" s="14" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -4624,6 +4912,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -4636,14 +4925,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -4656,6 +4945,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -4668,14 +4958,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4688,6 +4978,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -4700,14 +4991,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr">
+      <c r="C30" s="30" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -4720,6 +5011,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -4732,14 +5024,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="29" t="inlineStr">
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4752,6 +5044,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -4764,14 +5057,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C32" s="30" t="inlineStr">
+      <c r="C32" s="32" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -4784,11 +5077,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4801,7 +5095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4815,6 +5109,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4848,6 +5143,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -4880,6 +5176,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -4912,6 +5209,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -4944,6 +5242,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -4976,6 +5275,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -4990,10 +5290,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -5003,10 +5300,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -5014,6 +5308,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -5033,20 +5328,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -5054,6 +5341,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -5063,12 +5351,7 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -5078,12 +5361,7 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -5096,6 +5374,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -5128,6 +5407,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -5160,6 +5440,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -5168,6 +5449,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -5176,6 +5458,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
@@ -5188,6 +5471,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -5200,6 +5484,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -5222,8 +5507,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
@@ -5246,8 +5544,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
@@ -5270,8 +5581,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
@@ -5294,8 +5618,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="inlineStr">
@@ -5318,8 +5655,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -5328,6 +5678,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
@@ -5340,6 +5691,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -5372,6 +5724,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -5384,14 +5737,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C23" s="13" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -5404,6 +5757,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -5416,14 +5770,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C24" s="23" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L404], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -5436,6 +5790,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -5448,14 +5803,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -5468,6 +5823,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -5480,14 +5836,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C26" s="25" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -5500,6 +5856,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -5512,14 +5869,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C27" s="14" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -5532,6 +5889,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -5544,14 +5902,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -5564,6 +5922,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -5576,14 +5935,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C004], Wed 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -5596,6 +5955,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -5608,14 +5968,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr">
+      <c r="C30" s="30" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -5628,6 +5988,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -5640,14 +6001,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="29" t="inlineStr">
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -5660,6 +6021,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -5672,14 +6034,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C32" s="30" t="inlineStr">
+      <c r="C32" s="32" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -5692,11 +6054,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5709,7 +6072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5723,6 +6086,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5756,6 +6120,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -5788,6 +6153,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -5820,6 +6186,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -5852,6 +6219,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -5884,6 +6252,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -5898,10 +6267,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -5911,10 +6277,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -5922,6 +6285,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -5941,20 +6305,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -5962,6 +6318,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -5971,12 +6328,7 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
@@ -5986,12 +6338,7 @@
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="8" t="inlineStr">
@@ -6004,6 +6351,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -6036,6 +6384,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -6068,6 +6417,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -6076,6 +6426,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -6084,6 +6435,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
@@ -6096,6 +6448,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -6108,6 +6461,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -6130,8 +6484,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
@@ -6154,8 +6521,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
@@ -6178,8 +6558,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
@@ -6202,8 +6595,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="22" t="inlineStr">
@@ -6226,8 +6632,21 @@
           <t>Pre-Mid Only</t>
         </is>
       </c>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n"/>
@@ -6236,6 +6655,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
@@ -6248,6 +6668,7 @@
       <c r="D21" s="8" t="n"/>
       <c r="E21" s="8" t="n"/>
       <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
@@ -6280,6 +6701,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -6292,14 +6714,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C23" s="13" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -6312,6 +6734,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -6324,14 +6747,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C24" s="23" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -6344,6 +6767,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -6356,14 +6780,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C004], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -6376,6 +6800,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -6388,14 +6813,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C26" s="25" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L402], Thu 13:00-14:30 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -6408,6 +6833,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -6420,14 +6846,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C27" s="14" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -6440,6 +6866,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -6452,14 +6879,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -6472,6 +6899,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -6484,14 +6912,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -6504,6 +6932,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -6516,14 +6945,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr">
+      <c r="C30" s="30" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -6536,6 +6965,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -6548,14 +6978,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C31" s="29" t="inlineStr">
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -6568,6 +6998,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
@@ -6580,14 +7011,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C32" s="30" t="inlineStr">
+      <c r="C32" s="32" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -6600,11 +7031,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G32" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem5_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable.xlsx
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1836,12 +1836,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L404], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C004], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2067,12 +2067,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2100,12 +2100,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2133,12 +2133,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2813,12 +2813,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2879,12 +2879,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C004], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L402], Thu 13:00-14:30 [L402]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2945,12 +2945,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2978,12 +2978,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3044,12 +3044,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3077,12 +3077,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3110,12 +3110,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3790,12 +3790,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3823,12 +3823,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L404], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3922,12 +3922,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3955,12 +3955,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C004], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4021,12 +4021,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4054,12 +4054,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4087,12 +4087,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -4800,12 +4800,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -4833,12 +4833,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C004], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -4866,12 +4866,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L402], Thu 13:00-14:30 [L402]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -4899,12 +4899,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -4932,12 +4932,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4998,12 +4998,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -5031,12 +5031,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -5064,12 +5064,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -5744,12 +5744,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -5777,12 +5777,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L404], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -5810,12 +5810,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -5843,12 +5843,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -5876,12 +5876,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -5942,12 +5942,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C004], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -5975,12 +5975,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -6008,12 +6008,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -6041,12 +6041,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L107]</t>
+          <t>CS303 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -6754,12 +6754,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -6787,12 +6787,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C004], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -6820,12 +6820,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L402], Thu 13:00-14:30 [L402]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -6853,12 +6853,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -6886,12 +6886,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -6919,12 +6919,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -6952,12 +6952,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -6985,12 +6985,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -7018,12 +7018,12 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F32" s="8" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable.xlsx
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">

--- a/backend/output_timetables/sem5_CSE_timetable.xlsx
+++ b/backend/output_timetables/sem5_CSE_timetable.xlsx
@@ -754,7 +754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +766,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -806,6 +807,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -833,6 +839,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Animesh Roy, Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>CS303 (3-1-2-0-5 | Full Sem)</t>
         </is>
       </c>
@@ -860,6 +871,11 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
+          <t>Krishendu, Girish</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
           <t>CS304 (3-1-0-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -887,6 +903,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>Sunil C K, Pavan</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>CS309 (3-1-0-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -914,6 +935,11 @@
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
           <t>HS101 (0-0-0-8-2 | Pre-Mid Only)</t>
         </is>
       </c>
@@ -948,6 +974,11 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -975,6 +1006,11 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
           <t>ASD352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1002,6 +1038,11 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
           <t>CS308 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1029,6 +1070,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>CS352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1056,6 +1102,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>CS366 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1083,6 +1134,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>CS463 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1110,6 +1166,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>DS301 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1137,6 +1198,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>DS359 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1164,6 +1230,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>EC355 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1191,6 +1262,11 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>EC364 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1218,15 +1294,20 @@
       </c>
       <c r="E21" s="5" t="inlineStr">
         <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
           <t>EC365 (3-1-0-0-4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1335,10 +1416,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1369,10 +1450,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1403,10 +1484,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>195</v>
+        <v>166.5</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>33.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1437,10 +1518,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1471,10 +1552,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>49.5</v>
+        <v>7.5</v>
       </c>
       <c r="E7" t="n">
-        <v>9.9</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1641,10 +1722,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1879,10 +1960,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2267,10 +2348,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2335,10 +2416,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2369,10 +2450,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2403,10 +2484,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>30</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -2437,10 +2518,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -2471,10 +2552,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -2644,7 +2725,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -2860,7 +2941,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -2932,7 +3013,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3076,7 +3157,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3580,7 +3661,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3700,21 +3781,21 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -3724,7 +3805,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3738,7 +3819,7 @@
         </is>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3772,17 +3853,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -3796,7 +3877,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3868,7 +3949,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3916,21 +3997,21 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -3940,7 +4021,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3954,7 +4035,7 @@
         </is>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4012,7 +4093,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4516,7 +4597,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -4660,7 +4741,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5164,7 +5245,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5236,7 +5317,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -5740,7 +5821,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5812,7 +5893,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6302,7 +6383,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -6320,7 +6401,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -6373,12 +6454,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -6396,7 +6477,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6449,12 +6530,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -6472,7 +6553,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6525,12 +6606,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -6548,7 +6629,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -6601,7 +6682,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -6624,7 +6705,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -6677,7 +6758,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6700,7 +6781,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -6748,21 +6829,21 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -6772,7 +6853,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -6782,7 +6863,7 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6912,7 +6993,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -6960,12 +7041,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -6988,7 +7069,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7041,12 +7122,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -7064,7 +7145,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7117,12 +7198,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -7140,7 +7221,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -7188,21 +7269,21 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -7212,7 +7293,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -7222,7 +7303,7 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -7562,7 +7643,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -7580,7 +7661,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -7638,7 +7719,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -7656,7 +7737,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -7704,19 +7785,15 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="b">
         <v>0</v>
       </c>
@@ -7732,7 +7809,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -7780,12 +7857,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7808,7 +7885,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -7856,12 +7933,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7884,7 +7961,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -7937,7 +8014,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -7960,7 +8037,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -8013,7 +8090,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -8036,7 +8113,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -8079,26 +8156,26 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -8108,17 +8185,17 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -8838,7 +8915,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -8856,7 +8933,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8932,7 +9009,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -8980,21 +9057,21 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -9004,7 +9081,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -9014,7 +9091,7 @@
       </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -9116,21 +9193,21 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -9140,7 +9217,7 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -9150,7 +9227,7 @@
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -9208,7 +9285,7 @@
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -9424,7 +9501,7 @@
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -9496,7 +9573,7 @@
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -9640,7 +9717,7 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -10144,7 +10221,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -10336,17 +10413,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J108" t="b">
@@ -10360,7 +10437,7 @@
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -10432,7 +10509,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -10480,21 +10557,21 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10504,7 +10581,7 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -10518,7 +10595,7 @@
         </is>
       </c>
       <c r="P110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -10576,7 +10653,7 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -11080,7 +11157,7 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -11224,7 +11301,7 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -11728,7 +11805,7 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -11800,7 +11877,7 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -12304,7 +12381,7 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -12376,7 +12453,7 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -12866,7 +12943,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J143" t="b">
@@ -12884,7 +12961,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -12937,12 +13014,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J144" t="b">
@@ -12960,7 +13037,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -13013,12 +13090,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J145" t="b">
@@ -13036,7 +13113,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -13089,12 +13166,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J146" t="b">
@@ -13112,7 +13189,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -13165,7 +13242,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -13188,7 +13265,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -13241,7 +13318,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -13264,7 +13341,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -13476,7 +13553,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -13524,12 +13601,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -13552,7 +13629,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -13605,12 +13682,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J153" t="b">
@@ -13628,7 +13705,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -13681,12 +13758,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J154" t="b">
@@ -13704,7 +13781,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -14126,7 +14203,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J160" t="b">
@@ -14144,7 +14221,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -14202,7 +14279,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J161" t="b">
@@ -14220,7 +14297,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -14268,19 +14345,15 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="b">
         <v>0</v>
       </c>
@@ -14296,7 +14369,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -14344,12 +14417,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -14372,7 +14445,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -14420,12 +14493,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -14448,7 +14521,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -14501,7 +14574,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -14524,7 +14597,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -14577,7 +14650,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -14600,7 +14673,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -14643,7 +14716,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -14677,7 +14750,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="O167" t="inlineStr"/>
@@ -15402,7 +15475,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J177" t="b">
@@ -15420,7 +15493,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -15496,7 +15569,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -15766,7 +15839,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004, C101, C104, L406</t>
         </is>
       </c>
     </row>
@@ -15783,7 +15856,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
@@ -15800,7 +15873,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C104, L402</t>
         </is>
       </c>
     </row>
@@ -15817,7 +15890,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C202, C203, L403</t>
         </is>
       </c>
     </row>
@@ -15834,7 +15907,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004, C101, C305</t>
         </is>
       </c>
     </row>
@@ -15851,7 +15924,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001, C102, L402</t>
         </is>
       </c>
     </row>
@@ -15868,7 +15941,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002, C104, L403</t>
         </is>
       </c>
     </row>
@@ -15885,7 +15958,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003, C202, L404</t>
         </is>
       </c>
     </row>
@@ -15902,7 +15975,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104, L402, L405</t>
         </is>
       </c>
     </row>
@@ -15919,7 +15992,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203, L403, L406</t>
         </is>
       </c>
     </row>
@@ -15992,27 +16065,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -16025,17 +16098,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [C305]</t>
+          <t>CS309 [C202]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [C305]</t>
+          <t>CS309 [C202]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C305]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -16058,12 +16131,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [C304]</t>
+          <t>CS303 [C202]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [C304]</t>
+          <t>CS303 [C202]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -16124,7 +16197,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C305]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -16162,7 +16235,7 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C305]</t>
+          <t>CS304 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -16195,7 +16268,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -16228,7 +16301,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -16256,27 +16329,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -16583,7 +16656,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -16616,7 +16689,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -16649,7 +16722,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -16682,7 +16755,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -16748,7 +16821,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -16781,7 +16854,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -16814,7 +16887,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -16847,7 +16920,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -16880,7 +16953,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -16969,27 +17042,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -17002,17 +17075,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [C002]</t>
+          <t>CS309 [C203]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [C102]</t>
+          <t>CS309 [C203]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C002]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -17035,12 +17108,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [C305]</t>
+          <t>CS303 [C203]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [C202]</t>
+          <t>CS303 [C203]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -17101,7 +17174,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C303]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -17134,12 +17207,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C205]</t>
+          <t>CS309 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C303]</t>
+          <t>CS304 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -17172,7 +17245,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -17205,7 +17278,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -17233,27 +17306,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -17560,7 +17633,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -17593,7 +17666,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -17626,7 +17699,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -17659,7 +17732,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -17725,7 +17798,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -17758,7 +17831,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -17791,7 +17864,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -17824,7 +17897,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -17857,7 +17930,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -17946,27 +18019,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -17979,17 +18052,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [L404]</t>
+          <t>CS309 [C204]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [C104]</t>
+          <t>CS309 [C204]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C204]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -18012,12 +18085,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [C303]</t>
+          <t>CS303 [C204]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [C203]</t>
+          <t>CS303 [C204]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -18078,7 +18151,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C304]</t>
+          <t>CS304 [C204]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -18111,12 +18184,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C102]</t>
+          <t>CS309 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C304]</t>
+          <t>CS304 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -18149,7 +18222,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -18182,7 +18255,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -18210,27 +18283,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -18537,7 +18610,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -18570,7 +18643,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -18603,7 +18676,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -18636,7 +18709,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -18702,7 +18775,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -18735,7 +18808,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -18768,7 +18841,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -18801,7 +18874,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -18834,7 +18907,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -18923,27 +18996,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -18956,17 +19029,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [L405]</t>
+          <t>CS309 [C205]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [C204]</t>
+          <t>CS309 [C205]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS304 [L407]</t>
+          <t>CS304 [C205]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -18989,12 +19062,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [C002]</t>
+          <t>CS303 [C205]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [C204]</t>
+          <t>CS303 [C205]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -19055,7 +19128,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C302]</t>
+          <t>CS304 [C205]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -19088,12 +19161,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C101]</t>
+          <t>CS309 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C302]</t>
+          <t>CS304 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -19126,7 +19199,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -19159,7 +19232,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -19187,27 +19260,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -19514,7 +19587,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -19547,7 +19620,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -19580,7 +19653,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -19613,7 +19686,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -19679,7 +19752,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -19712,7 +19785,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -19745,7 +19818,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -19778,7 +19851,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -19811,7 +19884,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -19900,27 +19973,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -19933,7 +20006,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [L406]</t>
+          <t>CS309 [C302]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
@@ -19943,7 +20016,7 @@
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS304 [L408]</t>
+          <t>CS304 [C302]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -19966,7 +20039,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [L402]</t>
+          <t>CS303 [C302]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -20032,7 +20105,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C001]</t>
+          <t>CS304 [C302]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -20065,12 +20138,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C001]</t>
+          <t>CS309 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C001]</t>
+          <t>CS304 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -20103,7 +20176,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -20136,7 +20209,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -20164,27 +20237,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -20491,7 +20564,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -20524,7 +20597,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -20557,7 +20630,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -20590,7 +20663,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -20656,7 +20729,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -20689,7 +20762,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -20722,7 +20795,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -20755,7 +20828,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -20788,7 +20861,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -20877,27 +20950,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -20910,7 +20983,7 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>CS309 [L408]</t>
+          <t>CS309 [C303]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
@@ -20920,7 +20993,7 @@
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -20943,12 +21016,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [L403]</t>
+          <t>CS303 [C303]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS303 [C104]</t>
+          <t>CS303 [C303]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -21009,7 +21082,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS304 [C002]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -21042,12 +21115,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [C002]</t>
+          <t>CS309 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C002]</t>
+          <t>CS304 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -21080,7 +21153,7 @@
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -21113,7 +21186,7 @@
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -21141,27 +21214,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -21468,7 +21541,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -21501,7 +21574,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -21534,7 +21607,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -21567,7 +21640,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -21633,7 +21706,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -21666,7 +21739,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -21699,7 +21772,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -21732,7 +21805,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -21765,7 +21838,7 @@
       </c>
       <c r="D32" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E32" s="8" t="inlineStr">
@@ -21844,27 +21917,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -21913,7 +21986,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS303 [C004]</t>
+          <t>CS303 [L408]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -21972,7 +22045,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 [L402]</t>
+          <t>CS304 [L403]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -22004,12 +22077,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [L406]</t>
+          <t>CS309 (Tutorial) [L403]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [L403]</t>
+          <t>CS304 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -22041,7 +22114,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -22073,7 +22146,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -22100,27 +22173,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -22396,27 +22469,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing [L406]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463 [L406]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -22428,27 +22501,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing [L406]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463 [L406]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -22460,27 +22533,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing [L406]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463 [L406]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -22492,27 +22565,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing [L406]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463 [L406]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4 [L406]</t>
         </is>
       </c>
     </row>
@@ -22767,27 +22840,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -22895,7 +22968,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 [L403]</t>
+          <t>CS304 [L404]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -22927,12 +23000,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS309 (Tutorial) [L407]</t>
+          <t>CS309 (Tutorial) [L404]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [L405]</t>
+          <t>CS304 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -22964,7 +23037,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -22996,7 +23069,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS303 (Lab) [L207]</t>
+          <t>CS303 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -23023,27 +23096,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -23329,7 +23402,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -23361,7 +23434,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -23393,7 +23466,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -23425,7 +23498,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
